--- a/Faktury i cenniki/Sylveco/dostawa 05.11.2021/SZMNATURALNIERUDA__S_FS_305_11_2021.xlsx
+++ b/Faktury i cenniki/Sylveco/dostawa 05.11.2021/SZMNATURALNIERUDA__S_FS_305_11_2021.xlsx
@@ -8,22 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NaturalnieApp\Faktury i cenniki\Sylveco\dostawa 05.11.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8D5DAF-17B6-4734-B843-9196E435FE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079DDF21-1773-4569-9DD0-4D506DF42EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Arkusz2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="773">
   <si>
     <t>Sprzedawca:</t>
   </si>
@@ -2768,8 +2778,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A3:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E27"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="E371" sqref="E371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7108,15 +7118,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FE66E7-95CD-4259-8E6D-BF3D693281C2}">
   <sheetPr codeName="Arkusz2"/>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="7">
         <v>2</v>
       </c>
@@ -7129,8 +7142,10 @@
       <c r="F1" s="7">
         <v>5907502687157</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7">
         <v>7055342</v>
       </c>
@@ -7143,8 +7158,10 @@
       <c r="F2" s="7">
         <v>5907502687102</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -7154,8 +7171,10 @@
       <c r="F3" s="7">
         <v>5907502687027</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -7168,8 +7187,10 @@
       <c r="F4" s="7">
         <v>5907502687058</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7">
         <v>7039332</v>
       </c>
@@ -7182,8 +7203,10 @@
       <c r="F5" s="7">
         <v>5907502687188</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
@@ -7193,8 +7216,10 @@
       <c r="F6" s="7">
         <v>5907502687171</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -7207,8 +7232,10 @@
       <c r="F7" s="7">
         <v>5907502687065</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>7039329</v>
       </c>
@@ -7221,8 +7248,10 @@
       <c r="F8" s="7">
         <v>5907502687218</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -7232,8 +7261,10 @@
       <c r="F9" s="7">
         <v>5907502687232</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -7246,8 +7277,10 @@
       <c r="F10" s="7">
         <v>5907502687256</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="7">
         <v>7039328</v>
       </c>
@@ -7260,8 +7293,10 @@
       <c r="F11" s="7">
         <v>5907502687249</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -7271,8 +7306,10 @@
       <c r="F12" s="7">
         <v>5902249010794</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -7285,8 +7322,10 @@
       <c r="F13" s="7">
         <v>5907502687263</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="7">
         <v>7055341</v>
       </c>
@@ -7299,8 +7338,10 @@
       <c r="F14" s="7">
         <v>5907502687294</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -7310,8 +7351,10 @@
       <c r="F15" s="7">
         <v>5907502687300</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="7">
         <v>2</v>
       </c>
@@ -7324,8 +7367,10 @@
       <c r="F16" s="7">
         <v>5907502687317</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="7">
         <v>7055351</v>
       </c>
@@ -7338,8 +7383,10 @@
       <c r="F17" s="7">
         <v>5907502687362</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>39</v>
       </c>
@@ -7349,8 +7396,10 @@
       <c r="F18" s="7">
         <v>5907502687379</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="7">
         <v>4</v>
       </c>
@@ -7363,8 +7412,10 @@
       <c r="F19" s="7">
         <v>5902249011449</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="7">
         <v>7039813</v>
       </c>
@@ -7377,8 +7428,10 @@
       <c r="F20" s="7">
         <v>5902249014808</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
@@ -7388,8 +7441,10 @@
       <c r="F21" s="7">
         <v>5902249015904</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="7">
         <v>1</v>
       </c>
@@ -7402,8 +7457,10 @@
       <c r="F22" s="7">
         <v>5902249015805</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="7">
         <v>7055346</v>
       </c>
@@ -7416,8 +7473,10 @@
       <c r="F23" s="7">
         <v>5902249015812</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
         <v>76</v>
       </c>
@@ -7427,8 +7486,10 @@
       <c r="F24" s="7">
         <v>5902249015782</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="7">
         <v>2</v>
       </c>
@@ -7441,8 +7502,10 @@
       <c r="F25" s="7">
         <v>5902249015775</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="7">
         <v>7055347</v>
       </c>
@@ -7455,8 +7518,10 @@
       <c r="F26" s="7">
         <v>5902249015836</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
@@ -7466,8 +7531,10 @@
       <c r="F27" s="7">
         <v>5902249015768</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="7">
         <v>2</v>
       </c>
@@ -7480,8 +7547,10 @@
       <c r="F28" s="7">
         <v>5902249014952</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="7">
         <v>7055337</v>
       </c>
@@ -7494,8 +7563,10 @@
       <c r="F29" s="7">
         <v>5902249010459</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>39</v>
       </c>
@@ -7505,8 +7576,10 @@
       <c r="F30" s="7">
         <v>5902249015980</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="7">
         <v>3</v>
       </c>
@@ -7519,8 +7592,10 @@
       <c r="F31" s="7">
         <v>5902249011210</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>7055340</v>
       </c>
@@ -7533,6 +7608,8 @@
       <c r="F32" s="7">
         <v>5902249011180</v>
       </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7" t="s">
@@ -8285,11 +8362,1083 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE09A1B-3367-4AAB-9D0E-75132AB6E6C4}">
+  <sheetPr codeName="Arkusz5"/>
+  <dimension ref="A1:H120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" s="7">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7">
+        <v>5902249015164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>7083889</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5902249015164</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5907502687676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>5907502687690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5907502687683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7">
+        <v>7061174</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5907502687676</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5907502687720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5907502687744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5907502687782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
+        <v>7061167</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5907502687690</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5907502687652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5907502687669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5902249010107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>7061164</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5907502687683</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5902249010114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5902249010138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5902249010091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>7061168</v>
+      </c>
+      <c r="B14" s="7">
+        <v>5907502687720</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5902249010121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5902249010077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5902249010367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>7061173</v>
+      </c>
+      <c r="B17" s="7">
+        <v>5907502687744</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5902249010381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5902249010411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5902249010398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>7061161</v>
+      </c>
+      <c r="B20" s="7">
+        <v>5907502687782</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5902249010404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>5902249010510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5902249010947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>7061175</v>
+      </c>
+      <c r="B23" s="7">
+        <v>5907502687652</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5902249010480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="7">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5902249010497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5902249010473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>7061169</v>
+      </c>
+      <c r="B26" s="7">
+        <v>5907502687669</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5902249016307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5902249010916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7">
+        <v>3</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
+        <v>5902249016314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7">
+        <v>7062195</v>
+      </c>
+      <c r="B29" s="7">
+        <v>5902249010107</v>
+      </c>
+      <c r="G29" s="7">
+        <v>2</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5902249011074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5902249011081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5902249011104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7">
+        <v>7062196</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5902249010114</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5902249010992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>5902249016116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7">
+        <v>1</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7">
+        <v>5902249010978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7">
+        <v>7062208</v>
+      </c>
+      <c r="B35" s="7">
+        <v>5902249010138</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
+        <v>5902249016260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5902249016291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7">
+        <v>5902249016246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7">
+        <v>7062199</v>
+      </c>
+      <c r="B38" s="7">
+        <v>5902249010091</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5902249016277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5902249010282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="7">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5902249010206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="7">
+        <v>7062375</v>
+      </c>
+      <c r="B41" s="7">
+        <v>5902249010121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="7">
+        <v>2</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="7">
+        <v>7062209</v>
+      </c>
+      <c r="B44" s="7">
+        <v>5902249010077</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="7">
+        <v>3</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="7">
+        <v>7067196</v>
+      </c>
+      <c r="B47" s="7">
+        <v>5902249010367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7">
+        <v>1</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7">
+        <v>7067198</v>
+      </c>
+      <c r="B50" s="7">
+        <v>5902249010381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7">
+        <v>6</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7">
+        <v>7067203</v>
+      </c>
+      <c r="B53" s="7">
+        <v>5902249010411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7">
+        <v>1</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7">
+        <v>7067199</v>
+      </c>
+      <c r="B56" s="7">
+        <v>5902249010398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7">
+        <v>1</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7">
+        <v>7067202</v>
+      </c>
+      <c r="B59" s="7">
+        <v>5902249010404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7">
+        <v>1</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7">
+        <v>7072625</v>
+      </c>
+      <c r="B62" s="7">
+        <v>5902249010510</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="7">
+        <v>2</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="7">
+        <v>7071337</v>
+      </c>
+      <c r="B65" s="7">
+        <v>5902249010947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="7">
+        <v>2</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7">
+        <v>7068794</v>
+      </c>
+      <c r="B68" s="7">
+        <v>5902249010480</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="7">
+        <v>2</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="7">
+        <v>7068792</v>
+      </c>
+      <c r="B71" s="7">
+        <v>5902249010497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="7">
+        <v>1</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="7">
+        <v>7068787</v>
+      </c>
+      <c r="B74" s="7">
+        <v>5902249010473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="7">
+        <v>1</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" s="7">
+        <v>5902249016307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="7">
+        <v>1</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="7">
+        <v>7071340</v>
+      </c>
+      <c r="B80" s="7">
+        <v>5902249010916</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="7">
+        <v>1</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" s="7">
+        <v>5902249016314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="7">
+        <v>2</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="7">
+        <v>7072047</v>
+      </c>
+      <c r="B86" s="7">
+        <v>5902249011074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="7">
+        <v>1</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="7">
+        <v>7072046</v>
+      </c>
+      <c r="B89" s="7">
+        <v>5902249011081</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="7">
+        <v>1</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="7">
+        <v>7071738</v>
+      </c>
+      <c r="B92" s="7">
+        <v>5902249011104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="7">
+        <v>1</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="7">
+        <v>7071736</v>
+      </c>
+      <c r="B95" s="7">
+        <v>5902249010992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="7">
+        <v>1</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98" s="7">
+        <v>5902249016116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" s="7">
+        <v>5902249010978</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="B104" s="7">
+        <v>5902249016260</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" s="7">
+        <v>5902249016291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110" s="7">
+        <v>5902249016246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="B113" s="7">
+        <v>5902249016277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="B116" s="7">
+        <v>5902249010282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="B119" s="7">
+        <v>5902249010206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
@@ -8297,7 +9446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="A1"/>
